--- a/Test/Lawnmower/T2/Sensors_data_1000022.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9918703550567295</v>
+        <v>0.9189234502144995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004265520160116942</v>
+        <v>0.002897388444593718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06845262603896402</v>
+        <v>0.3816752010710807</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9837197312774152</v>
+        <v>0.9702925701613346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007643024523487035</v>
+        <v>0.001506833603714465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04475942646185882</v>
+        <v>0.2338619423986113</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2263507804558123</v>
+        <v>0.9848850955479143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05139691800371493</v>
+        <v>0.0003649839409029001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4867977849655327</v>
+        <v>0.1023398985426157</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,18 +550,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.89509748256681</v>
+        <v>0.9799860632640186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004202977205034378</v>
+        <v>0.001050105523997095</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02123610674727944</v>
+        <v>0.07250650072129455</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9855898189347482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0006765082883234037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01035078509215126</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4087750826690296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03927766981490172</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4462447694576042</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
